--- a/data/data_5.xlsx
+++ b/data/data_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NLP-DL\src\corpora_excel\book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repository\NER_Data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC99057A-99C3-4575-ACC3-02AE9F61C6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27088E2F-2D83-4166-BEA5-0CA6A99DD847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -846,809 +846,92 @@
     <t>BIOOOOOBIOBIOOOOOBIOOOOOOOOOOOOOBIIOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOO</t>
   </si>
   <si>
-    <r>
-      <t>OOOOOOOObiiO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>OOBIOBIOOOOOOBIOOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OBIOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>再以泽泻、茯苓利水渗湿，配桂枝又善温</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>化痰饮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>；丹皮苦辛而寒，擅入血分，合桂枝则可调血分之滞，三药寓泻于补，俾邪去而补药得力，为制诸阴药可能助湿碍邪之虞。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>正如柯琴所云：此肾气丸纳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>桂、附</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>于滋阴剂中十倍之一，意不在补火，而在微微生火，即生肾气也(《医宗金鉴删补名医方论》)。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>本方原名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>地黄饮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，《黄帝素问宣明论方》在原方基础上加少许薄荷，名地黄饮子，薄荷疏郁而轻清上行，清利咽喉窍道，对痰阻窍道更为适合。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OOOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOOOOOOOOOOOOOOOOOOOBIOObiiiOBIOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>若属痱而无喑者，减去石菖蒲、远志等宣通开窍之品；喑痱以阴虚为主，痰火偏盛者，去</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>附、桂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，酌加川贝母、竹沥、胆南星、天竺黄等以清化痰热；兼有气虚者，酌加黄芪、人参以益气。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OOOOOOOOOOBIIOBIOOOOOOOOOOOOOOOOOOOOOOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOOBIIOBIOBIIOBIIOOOOOOOOOOOOOOOBIOBIOOOO</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>故方中熟地、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>巴戟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>山萸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、苁蓉之类，大补肾脏之不足，而以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>桂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>附</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>之辛热，协四味以温养真阳；但真阳下虚，必有浮阳上僭，故以石斛、麦冬清之；火载痰升，故以茯苓渗之；然痰火上浮，必多堵塞窍道，菖蒲、远志能交通上下而宣窍辟邪；五味以收其耗散之气，使正有所归；薄荷以搜其不尽之邪，使风无留着；用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>姜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>枣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>者，和其营卫，匡正除邪耳。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OOOBIOBI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OBIOOOOOOOOOOOOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOBIOBIOOOOOOOOOOBIOOOOOOOOOOOOOOOOBIOBIOOOOOOOOOOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOOOOOOOOOOOO</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OOOOOOOOOOBIOOOOOOOOOBIOOOOOOOOBIOOOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OO</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>上为末，用水一碗，煮生姜四两(120g)，红枣五十枚，水干，取枣肉为丸，如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>桐子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>《素问生气</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>论》曰：阳气者，精则养神，脾肾阳虚，阳气不能化精微以养神，以致神疲乏力。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OOOOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OOOOOOOOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>上为末，酒糊丸，如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>梧桐子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大，每服50丸(6g)，空心温酒或白汤下(现代用法：以上6味，粉碎成细粉，过筛，混匀，用水泛丸干燥即得。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>上为末，炼蜜为丸，如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>梧桐子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大，用朱砂为衣，每服二三十丸(6~9g)，临卧，竹叶煎汤送下(现代用法：上药共为细末，炼蜜为小丸，用朱砂水飞9~15g为衣，每服6~9g，温开水送下，或用桂圆肉煎汤送服；亦可改为汤剂，用量按原方比例酌减)。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OOOOOOOOOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOOBIOOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOOBIIOOOOOOOOOOOOOOOOOOOOOOO</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>OOOOOOOObiiOBOBOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>OOBIOBIOOOOOOBIOOOOOOOBIOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>OOOObiiOOOOOOOOOOOOOOOOOOOOBIOObiiiOBIOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOBIIOBIOOOOOOOOOOOOOOOOOOOOOOOBOBOOOBIIOBIOBIIOBIIOOOOOOOOOOOOOOOBIOBIOOOO</t>
+  </si>
+  <si>
+    <t>OOOBIOBIOBIOBIOOOOOOOOOOOOOBOBOOOOOOOOOOOOOOOOOOOOOOOOOOOOBIOBIOOOOOOOOOOBIOOOOOOOOOOOOOOOOBIOBIOOOOOOOOOOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOBOBOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>正如柯琴所云：此肾气丸纳桂、附于滋阴剂中十倍之一，意不在补火，而在微微生火，即生肾气也(《医宗金鉴删补名医方论》)。</t>
+  </si>
+  <si>
+    <t>再以泽泻、茯苓利水渗湿，配桂枝又善温化痰饮；丹皮苦辛而寒，擅入血分，合桂枝则可调血分之滞，三药寓泻于补，俾邪去而补药得力，为制诸阴药可能助湿碍邪之虞。</t>
+  </si>
+  <si>
+    <t>本方原名地黄饮，《黄帝素问宣明论方》在原方基础上加少许薄荷，名地黄饮子，薄荷疏郁而轻清上行，清利咽喉窍道，对痰阻窍道更为适合。</t>
+  </si>
+  <si>
+    <t>若属痱而无喑者，减去石菖蒲、远志等宣通开窍之品；喑痱以阴虚为主，痰火偏盛者，去附、桂，酌加川贝母、竹沥、胆南星、天竺黄等以清化痰热；兼有气虚者，酌加黄芪、人参以益气。</t>
+  </si>
+  <si>
+    <t>故方中熟地、巴戟、山萸、苁蓉之类，大补肾脏之不足，而以桂、附之辛热，协四味以温养真阳；但真阳下虚，必有浮阳上僭，故以石斛、麦冬清之；火载痰升，故以茯苓渗之；然痰火上浮，必多堵塞窍道，菖蒲、远志能交通上下而宣窍辟邪；五味以收其耗散之气，使正有所归；薄荷以搜其不尽之邪，使风无留着；用姜、枣者，和其营卫，匡正除邪耳。</t>
+  </si>
+  <si>
+    <t>上为末，用水一碗，煮生姜四两(120g)，红枣五十枚，水干，取枣肉为丸，如桐子大。</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOBIOOOOOOOOOBIOOOOOOOOBIOOOOOOOO</t>
+  </si>
+  <si>
+    <t>《素问生气通天论》曰：阳气者，精则养神，脾肾阳虚，阳气不能化精微以养神，以致神疲乏力。</t>
+  </si>
+  <si>
+    <t>上为末，酒糊丸，如梧桐子大，每服50丸(6g)，空心温酒或白汤下(现代用法：以上6味，粉碎成细粉，过筛，混匀，用水泛丸干燥即得。</t>
+  </si>
+  <si>
+    <t>上为末，炼蜜为丸，如梧桐子大，用朱砂为衣，每服二三十丸(6~9g)，临卧，竹叶煎汤送下(现代用法：上药共为细末，炼蜜为小丸，用朱砂水飞9~15g为衣，每服6~9g，温开水送下，或用桂圆肉煎汤送服；亦可改为汤剂，用量按原方比例酌减)。</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOOBIIOOOOOOOOOOOOOOOOOOOOOOO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1665,29 +948,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1965,1432 +1230,1423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="85.375" customWidth="1"/>
-    <col min="4" max="4" width="114.625" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="218.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>1324</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1325</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1328</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1330</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>1335</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>1341</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1342</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>1343</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>1346</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>1348</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="93.75" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>1357</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>1358</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1361</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>1362</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1363</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>1364</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1365</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>1366</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>1371</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>1372</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>1374</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>1375</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>1377</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>1379</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>1380</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>1383</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>1384</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>1391</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>1392</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>1394</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>1401</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>1402</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>1404</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>1405</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>1406</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>1411</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>1414</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>1416</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>1417</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>1423</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="C40" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>1424</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>1425</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>1426</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>1430</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>1431</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>1433</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>1434</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>1436</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>1437</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>1440</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>1441</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>1445</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="75" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>1448</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>1450</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>1452</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>1456</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>1457</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>1458</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>1459</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>1461</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>1462</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>1463</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>1466</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>1467</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>1476</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>1477</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>1478</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>1479</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>1484</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>1491</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>1493</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="D71" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>1498</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>1500</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>1501</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>1502</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>1504</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>1505</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>1508</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>1513</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>1514</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>1517</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>1518</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>1519</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>1522</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>1526</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>1528</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>1530</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>1531</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>1532</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>1533</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>1538</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>1539</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>1541</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>1542</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>1546</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>1548</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="75" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>1549</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>1553</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>1554</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>1555</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C102" s="4"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D107" s="7"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
